--- a/app/static/images/user (2) — копия.xlsx
+++ b/app/static/images/user (2) — копия.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB\T-Park\app\static\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\T-Park\app\static\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59469BF3-EBE9-4AFF-B0EC-133ED08057A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31307F18-9C12-429B-81DD-78C89156CB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="1230" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Пользователи" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="295">
   <si>
     <t>id</t>
   </si>
@@ -902,6 +902,9 @@
   </si>
   <si>
     <t>Иванов Иван Иванович 248</t>
+  </si>
+  <si>
+    <t>ttt</t>
   </si>
 </sst>
 </file>
@@ -1337,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="I244" sqref="I244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1355,7 @@
     <col min="6" max="7" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>46</v>
       </c>
@@ -1388,8 +1391,11 @@
       <c r="F2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>47</v>
       </c>
@@ -1405,8 +1411,11 @@
       <c r="F3" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>48</v>
@@ -1423,8 +1432,11 @@
       <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>49</v>
@@ -1441,8 +1453,11 @@
       <c r="F5" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>50</v>
@@ -1459,8 +1474,11 @@
       <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>51</v>
@@ -1477,8 +1495,11 @@
       <c r="F7" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>52</v>
@@ -1495,8 +1516,11 @@
       <c r="F8" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>53</v>
@@ -1513,8 +1537,11 @@
       <c r="F9" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>54</v>
@@ -1531,8 +1558,11 @@
       <c r="F10" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>55</v>
@@ -1549,8 +1579,11 @@
       <c r="F11" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>56</v>
@@ -1567,8 +1600,11 @@
       <c r="F12" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>57</v>
@@ -1585,8 +1621,11 @@
       <c r="F13" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>58</v>
@@ -1603,8 +1642,11 @@
       <c r="F14" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>59</v>
@@ -1621,8 +1663,11 @@
       <c r="F15" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>60</v>
@@ -1639,8 +1684,11 @@
       <c r="F16" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>61</v>
@@ -1657,8 +1705,11 @@
       <c r="F17" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>62</v>
@@ -1675,8 +1726,11 @@
       <c r="F18" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>63</v>
@@ -1693,8 +1747,11 @@
       <c r="F19" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
         <v>64</v>
@@ -1711,8 +1768,11 @@
       <c r="F20" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>65</v>
@@ -1729,8 +1789,11 @@
       <c r="F21" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
         <v>66</v>
@@ -1747,8 +1810,11 @@
       <c r="F22" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
         <v>67</v>
@@ -1765,8 +1831,11 @@
       <c r="F23" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
         <v>68</v>
@@ -1783,8 +1852,11 @@
       <c r="F24" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
         <v>69</v>
@@ -1801,8 +1873,11 @@
       <c r="F25" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
         <v>70</v>
@@ -1819,8 +1894,11 @@
       <c r="F26" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
         <v>71</v>
@@ -1837,8 +1915,11 @@
       <c r="F27" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
         <v>72</v>
@@ -1855,8 +1936,11 @@
       <c r="F28" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
         <v>73</v>
@@ -1873,8 +1957,11 @@
       <c r="F29" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
         <v>74</v>
@@ -1891,8 +1978,11 @@
       <c r="F30" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
         <v>75</v>
@@ -1909,8 +1999,11 @@
       <c r="F31" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
         <v>76</v>
@@ -1927,8 +2020,11 @@
       <c r="F32" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>77</v>
       </c>
@@ -1944,8 +2040,11 @@
       <c r="F33" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>78</v>
       </c>
@@ -1961,8 +2060,11 @@
       <c r="F34" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>79</v>
       </c>
@@ -1978,8 +2080,11 @@
       <c r="F35" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>80</v>
       </c>
@@ -1995,8 +2100,11 @@
       <c r="F36" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>81</v>
       </c>
@@ -2012,8 +2120,11 @@
       <c r="F37" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>82</v>
       </c>
@@ -2029,8 +2140,11 @@
       <c r="F38" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>83</v>
       </c>
@@ -2046,8 +2160,11 @@
       <c r="F39" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>84</v>
       </c>
@@ -2063,8 +2180,11 @@
       <c r="F40" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>85</v>
       </c>
@@ -2080,8 +2200,11 @@
       <c r="F41" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>86</v>
       </c>
@@ -2097,8 +2220,11 @@
       <c r="F42" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>87</v>
       </c>
@@ -2114,8 +2240,11 @@
       <c r="F43" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>88</v>
       </c>
@@ -2131,8 +2260,11 @@
       <c r="F44" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>89</v>
       </c>
@@ -2148,8 +2280,11 @@
       <c r="F45" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>90</v>
       </c>
@@ -2165,8 +2300,11 @@
       <c r="F46" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>91</v>
       </c>
@@ -2182,8 +2320,11 @@
       <c r="F47" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>92</v>
       </c>
@@ -2199,8 +2340,11 @@
       <c r="F48" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>93</v>
       </c>
@@ -2216,8 +2360,11 @@
       <c r="F49" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>94</v>
       </c>
@@ -2233,8 +2380,11 @@
       <c r="F50" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>95</v>
       </c>
@@ -2250,8 +2400,11 @@
       <c r="F51" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>96</v>
       </c>
@@ -2267,8 +2420,11 @@
       <c r="F52" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>97</v>
       </c>
@@ -2284,8 +2440,11 @@
       <c r="F53" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>98</v>
       </c>
@@ -2301,8 +2460,11 @@
       <c r="F54" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>99</v>
       </c>
@@ -2318,8 +2480,11 @@
       <c r="F55" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>100</v>
       </c>
@@ -2335,8 +2500,11 @@
       <c r="F56" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>101</v>
       </c>
@@ -2352,8 +2520,11 @@
       <c r="F57" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>102</v>
       </c>
@@ -2369,8 +2540,11 @@
       <c r="F58" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>103</v>
       </c>
@@ -2386,8 +2560,11 @@
       <c r="F59" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>104</v>
       </c>
@@ -2403,8 +2580,11 @@
       <c r="F60" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>105</v>
       </c>
@@ -2420,8 +2600,11 @@
       <c r="F61" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>106</v>
       </c>
@@ -2437,8 +2620,11 @@
       <c r="F62" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>107</v>
       </c>
@@ -2454,8 +2640,11 @@
       <c r="F63" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>108</v>
       </c>
@@ -2471,8 +2660,11 @@
       <c r="F64" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>109</v>
       </c>
@@ -2488,8 +2680,11 @@
       <c r="F65" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>110</v>
       </c>
@@ -2505,8 +2700,11 @@
       <c r="F66" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>111</v>
       </c>
@@ -2522,8 +2720,11 @@
       <c r="F67" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>112</v>
       </c>
@@ -2539,8 +2740,11 @@
       <c r="F68" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>113</v>
       </c>
@@ -2556,8 +2760,11 @@
       <c r="F69" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>114</v>
       </c>
@@ -2573,8 +2780,11 @@
       <c r="F70" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>115</v>
       </c>
@@ -2590,8 +2800,11 @@
       <c r="F71" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>116</v>
       </c>
@@ -2607,8 +2820,11 @@
       <c r="F72" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>117</v>
       </c>
@@ -2624,8 +2840,11 @@
       <c r="F73" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>118</v>
       </c>
@@ -2641,8 +2860,11 @@
       <c r="F74" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>119</v>
       </c>
@@ -2658,8 +2880,11 @@
       <c r="F75" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>120</v>
       </c>
@@ -2675,8 +2900,11 @@
       <c r="F76" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>121</v>
       </c>
@@ -2692,8 +2920,11 @@
       <c r="F77" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
         <v>122</v>
       </c>
@@ -2709,8 +2940,11 @@
       <c r="F78" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
         <v>123</v>
       </c>
@@ -2726,8 +2960,11 @@
       <c r="F79" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
         <v>124</v>
       </c>
@@ -2743,8 +2980,11 @@
       <c r="F80" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
         <v>125</v>
       </c>
@@ -2760,8 +3000,11 @@
       <c r="F81" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
         <v>126</v>
       </c>
@@ -2777,8 +3020,11 @@
       <c r="F82" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>127</v>
       </c>
@@ -2794,8 +3040,11 @@
       <c r="F83" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
         <v>128</v>
       </c>
@@ -2811,8 +3060,11 @@
       <c r="F84" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>129</v>
       </c>
@@ -2828,8 +3080,11 @@
       <c r="F85" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="5" t="s">
         <v>130</v>
       </c>
@@ -2845,8 +3100,11 @@
       <c r="F86" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
         <v>131</v>
       </c>
@@ -2862,8 +3120,11 @@
       <c r="F87" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
         <v>132</v>
       </c>
@@ -2879,8 +3140,11 @@
       <c r="F88" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>133</v>
       </c>
@@ -2896,8 +3160,11 @@
       <c r="F89" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>134</v>
       </c>
@@ -2913,8 +3180,11 @@
       <c r="F90" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
         <v>135</v>
       </c>
@@ -2930,8 +3200,11 @@
       <c r="F91" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>136</v>
       </c>
@@ -2947,8 +3220,11 @@
       <c r="F92" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
         <v>137</v>
       </c>
@@ -2964,8 +3240,11 @@
       <c r="F93" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
         <v>138</v>
       </c>
@@ -2981,8 +3260,11 @@
       <c r="F94" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
         <v>139</v>
       </c>
@@ -2998,8 +3280,11 @@
       <c r="F95" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="5" t="s">
         <v>140</v>
       </c>
@@ -3015,8 +3300,11 @@
       <c r="F96" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
         <v>141</v>
       </c>
@@ -3032,8 +3320,11 @@
       <c r="F97" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
         <v>142</v>
       </c>
@@ -3049,8 +3340,11 @@
       <c r="F98" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
         <v>143</v>
       </c>
@@ -3066,8 +3360,11 @@
       <c r="F99" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
         <v>144</v>
       </c>
@@ -3083,8 +3380,11 @@
       <c r="F100" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
         <v>145</v>
       </c>
@@ -3100,8 +3400,11 @@
       <c r="F101" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
         <v>146</v>
       </c>
@@ -3117,8 +3420,11 @@
       <c r="F102" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
         <v>147</v>
       </c>
@@ -3134,8 +3440,11 @@
       <c r="F103" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="5" t="s">
         <v>148</v>
       </c>
@@ -3151,8 +3460,11 @@
       <c r="F104" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
         <v>149</v>
       </c>
@@ -3168,8 +3480,11 @@
       <c r="F105" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
         <v>150</v>
       </c>
@@ -3185,8 +3500,11 @@
       <c r="F106" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
         <v>151</v>
       </c>
@@ -3202,8 +3520,11 @@
       <c r="F107" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="5" t="s">
         <v>152</v>
       </c>
@@ -3219,8 +3540,11 @@
       <c r="F108" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="5" t="s">
         <v>153</v>
       </c>
@@ -3236,8 +3560,11 @@
       <c r="F109" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="5" t="s">
         <v>154</v>
       </c>
@@ -3253,8 +3580,11 @@
       <c r="F110" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="5" t="s">
         <v>155</v>
       </c>
@@ -3270,8 +3600,11 @@
       <c r="F111" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
         <v>156</v>
       </c>
@@ -3287,8 +3620,11 @@
       <c r="F112" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="5" t="s">
         <v>157</v>
       </c>
@@ -3304,8 +3640,11 @@
       <c r="F113" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="5" t="s">
         <v>158</v>
       </c>
@@ -3321,8 +3660,11 @@
       <c r="F114" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
         <v>159</v>
       </c>
@@ -3338,8 +3680,11 @@
       <c r="F115" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
         <v>160</v>
       </c>
@@ -3355,8 +3700,11 @@
       <c r="F116" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
         <v>161</v>
       </c>
@@ -3372,8 +3720,11 @@
       <c r="F117" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G117" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="5" t="s">
         <v>162</v>
       </c>
@@ -3389,8 +3740,11 @@
       <c r="F118" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G118" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="5" t="s">
         <v>163</v>
       </c>
@@ -3406,8 +3760,11 @@
       <c r="F119" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G119" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="5" t="s">
         <v>164</v>
       </c>
@@ -3423,8 +3780,11 @@
       <c r="F120" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G120" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="5" t="s">
         <v>165</v>
       </c>
@@ -3440,8 +3800,11 @@
       <c r="F121" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G121" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="5" t="s">
         <v>166</v>
       </c>
@@ -3457,8 +3820,11 @@
       <c r="F122" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G122" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="5" t="s">
         <v>167</v>
       </c>
@@ -3474,8 +3840,11 @@
       <c r="F123" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G123" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="5" t="s">
         <v>168</v>
       </c>
@@ -3491,8 +3860,11 @@
       <c r="F124" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G124" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="5" t="s">
         <v>169</v>
       </c>
@@ -3508,8 +3880,11 @@
       <c r="F125" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G125" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="5" t="s">
         <v>170</v>
       </c>
@@ -3525,8 +3900,11 @@
       <c r="F126" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G126" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="5" t="s">
         <v>171</v>
       </c>
@@ -3542,8 +3920,11 @@
       <c r="F127" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="5" t="s">
         <v>172</v>
       </c>
@@ -3559,8 +3940,11 @@
       <c r="F128" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G128" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="5" t="s">
         <v>173</v>
       </c>
@@ -3576,8 +3960,11 @@
       <c r="F129" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="5" t="s">
         <v>174</v>
       </c>
@@ -3593,8 +3980,11 @@
       <c r="F130" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G130" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="5" t="s">
         <v>175</v>
       </c>
@@ -3610,8 +4000,11 @@
       <c r="F131" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G131" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="5" t="s">
         <v>176</v>
       </c>
@@ -3627,8 +4020,11 @@
       <c r="F132" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G132" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="5" t="s">
         <v>177</v>
       </c>
@@ -3644,8 +4040,11 @@
       <c r="F133" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G133" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="5" t="s">
         <v>178</v>
       </c>
@@ -3661,8 +4060,11 @@
       <c r="F134" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G134" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="5" t="s">
         <v>179</v>
       </c>
@@ -3678,8 +4080,11 @@
       <c r="F135" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G135" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="5" t="s">
         <v>180</v>
       </c>
@@ -3695,8 +4100,11 @@
       <c r="F136" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="5" t="s">
         <v>181</v>
       </c>
@@ -3712,8 +4120,11 @@
       <c r="F137" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="5" t="s">
         <v>182</v>
       </c>
@@ -3729,8 +4140,11 @@
       <c r="F138" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
         <v>183</v>
       </c>
@@ -3746,8 +4160,11 @@
       <c r="F139" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G139" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="5" t="s">
         <v>184</v>
       </c>
@@ -3763,8 +4180,11 @@
       <c r="F140" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="5" t="s">
         <v>185</v>
       </c>
@@ -3780,8 +4200,11 @@
       <c r="F141" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="5" t="s">
         <v>186</v>
       </c>
@@ -3797,8 +4220,11 @@
       <c r="F142" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G142" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="5" t="s">
         <v>187</v>
       </c>
@@ -3814,8 +4240,11 @@
       <c r="F143" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G143" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="5" t="s">
         <v>188</v>
       </c>
@@ -3831,8 +4260,11 @@
       <c r="F144" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G144" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="5" t="s">
         <v>189</v>
       </c>
@@ -3848,8 +4280,11 @@
       <c r="F145" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G145" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
         <v>190</v>
       </c>
@@ -3865,8 +4300,11 @@
       <c r="F146" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="5" t="s">
         <v>191</v>
       </c>
@@ -3882,8 +4320,11 @@
       <c r="F147" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G147" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
         <v>192</v>
       </c>
@@ -3899,8 +4340,11 @@
       <c r="F148" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G148" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
         <v>193</v>
       </c>
@@ -3916,8 +4360,11 @@
       <c r="F149" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G149" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="5" t="s">
         <v>194</v>
       </c>
@@ -3933,8 +4380,11 @@
       <c r="F150" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G150" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" s="5" t="s">
         <v>195</v>
       </c>
@@ -3950,8 +4400,11 @@
       <c r="F151" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G151" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" s="5" t="s">
         <v>196</v>
       </c>
@@ -3967,8 +4420,11 @@
       <c r="F152" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G152" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" s="5" t="s">
         <v>197</v>
       </c>
@@ -3984,8 +4440,11 @@
       <c r="F153" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G153" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
         <v>198</v>
       </c>
@@ -4001,8 +4460,11 @@
       <c r="F154" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G154" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155" s="5" t="s">
         <v>199</v>
       </c>
@@ -4018,8 +4480,11 @@
       <c r="F155" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G155" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="5" t="s">
         <v>200</v>
       </c>
@@ -4035,8 +4500,11 @@
       <c r="F156" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G156" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="5" t="s">
         <v>201</v>
       </c>
@@ -4052,8 +4520,11 @@
       <c r="F157" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G157" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="5" t="s">
         <v>202</v>
       </c>
@@ -4069,8 +4540,11 @@
       <c r="F158" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G158" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" s="5" t="s">
         <v>203</v>
       </c>
@@ -4086,8 +4560,11 @@
       <c r="F159" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G159" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" s="5" t="s">
         <v>204</v>
       </c>
@@ -4103,8 +4580,11 @@
       <c r="F160" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G160" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161" s="5" t="s">
         <v>205</v>
       </c>
@@ -4120,8 +4600,11 @@
       <c r="F161" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G161" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="5" t="s">
         <v>206</v>
       </c>
@@ -4137,8 +4620,11 @@
       <c r="F162" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G162" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" s="5" t="s">
         <v>207</v>
       </c>
@@ -4154,8 +4640,11 @@
       <c r="F163" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G163" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="5" t="s">
         <v>208</v>
       </c>
@@ -4171,8 +4660,11 @@
       <c r="F164" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G164" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" s="5" t="s">
         <v>209</v>
       </c>
@@ -4188,8 +4680,11 @@
       <c r="F165" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G165" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" s="5" t="s">
         <v>210</v>
       </c>
@@ -4205,8 +4700,11 @@
       <c r="F166" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G166" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" s="5" t="s">
         <v>211</v>
       </c>
@@ -4222,8 +4720,11 @@
       <c r="F167" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G167" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" s="5" t="s">
         <v>212</v>
       </c>
@@ -4239,8 +4740,11 @@
       <c r="F168" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G168" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169" s="5" t="s">
         <v>213</v>
       </c>
@@ -4256,8 +4760,11 @@
       <c r="F169" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G169" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="5" t="s">
         <v>214</v>
       </c>
@@ -4273,8 +4780,11 @@
       <c r="F170" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G170" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" s="5" t="s">
         <v>215</v>
       </c>
@@ -4290,8 +4800,11 @@
       <c r="F171" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G171" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="5" t="s">
         <v>216</v>
       </c>
@@ -4307,8 +4820,11 @@
       <c r="F172" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G172" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="5" t="s">
         <v>217</v>
       </c>
@@ -4324,8 +4840,11 @@
       <c r="F173" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G173" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" s="5" t="s">
         <v>218</v>
       </c>
@@ -4341,8 +4860,11 @@
       <c r="F174" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G174" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175" s="5" t="s">
         <v>219</v>
       </c>
@@ -4358,8 +4880,11 @@
       <c r="F175" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G175" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176" s="5" t="s">
         <v>220</v>
       </c>
@@ -4375,8 +4900,11 @@
       <c r="F176" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G176" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" s="5" t="s">
         <v>221</v>
       </c>
@@ -4392,8 +4920,11 @@
       <c r="F177" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G177" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178" s="5" t="s">
         <v>222</v>
       </c>
@@ -4409,8 +4940,11 @@
       <c r="F178" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G178" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B179" s="5" t="s">
         <v>223</v>
       </c>
@@ -4426,8 +4960,11 @@
       <c r="F179" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G179" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" s="5" t="s">
         <v>224</v>
       </c>
@@ -4443,8 +4980,11 @@
       <c r="F180" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G180" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" s="5" t="s">
         <v>225</v>
       </c>
@@ -4460,8 +5000,11 @@
       <c r="F181" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G181" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182" s="5" t="s">
         <v>226</v>
       </c>
@@ -4477,8 +5020,11 @@
       <c r="F182" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G182" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183" s="5" t="s">
         <v>227</v>
       </c>
@@ -4494,8 +5040,11 @@
       <c r="F183" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G183" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B184" s="5" t="s">
         <v>228</v>
       </c>
@@ -4511,8 +5060,11 @@
       <c r="F184" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G184" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B185" s="5" t="s">
         <v>229</v>
       </c>
@@ -4528,8 +5080,11 @@
       <c r="F185" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G185" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B186" s="5" t="s">
         <v>230</v>
       </c>
@@ -4545,8 +5100,11 @@
       <c r="F186" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G186" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" s="5" t="s">
         <v>231</v>
       </c>
@@ -4562,8 +5120,11 @@
       <c r="F187" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G187" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" s="5" t="s">
         <v>232</v>
       </c>
@@ -4579,8 +5140,11 @@
       <c r="F188" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G188" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" s="5" t="s">
         <v>233</v>
       </c>
@@ -4596,8 +5160,11 @@
       <c r="F189" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G189" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B190" s="5" t="s">
         <v>234</v>
       </c>
@@ -4613,8 +5180,11 @@
       <c r="F190" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G190" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B191" s="5" t="s">
         <v>235</v>
       </c>
@@ -4630,8 +5200,11 @@
       <c r="F191" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G191" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B192" s="5" t="s">
         <v>236</v>
       </c>
@@ -4647,8 +5220,11 @@
       <c r="F192" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G192" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" s="5" t="s">
         <v>237</v>
       </c>
@@ -4664,8 +5240,11 @@
       <c r="F193" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G193" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B194" s="5" t="s">
         <v>238</v>
       </c>
@@ -4681,8 +5260,11 @@
       <c r="F194" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G194" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B195" s="5" t="s">
         <v>239</v>
       </c>
@@ -4698,8 +5280,11 @@
       <c r="F195" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G195" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196" s="5" t="s">
         <v>240</v>
       </c>
@@ -4715,8 +5300,11 @@
       <c r="F196" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G196" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" s="5" t="s">
         <v>241</v>
       </c>
@@ -4732,8 +5320,11 @@
       <c r="F197" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G197" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" s="5" t="s">
         <v>242</v>
       </c>
@@ -4749,8 +5340,11 @@
       <c r="F198" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G198" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B199" s="5" t="s">
         <v>243</v>
       </c>
@@ -4766,8 +5360,11 @@
       <c r="F199" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G199" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B200" s="5" t="s">
         <v>244</v>
       </c>
@@ -4783,8 +5380,11 @@
       <c r="F200" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G200" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B201" s="5" t="s">
         <v>245</v>
       </c>
@@ -4800,8 +5400,11 @@
       <c r="F201" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G201" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" s="5" t="s">
         <v>246</v>
       </c>
@@ -4817,8 +5420,11 @@
       <c r="F202" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G202" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B203" s="5" t="s">
         <v>247</v>
       </c>
@@ -4834,8 +5440,11 @@
       <c r="F203" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G203" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B204" s="5" t="s">
         <v>248</v>
       </c>
@@ -4851,8 +5460,11 @@
       <c r="F204" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G204" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B205" s="5" t="s">
         <v>249</v>
       </c>
@@ -4868,8 +5480,11 @@
       <c r="F205" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G205" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" s="5" t="s">
         <v>250</v>
       </c>
@@ -4885,8 +5500,11 @@
       <c r="F206" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G206" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B207" s="5" t="s">
         <v>251</v>
       </c>
@@ -4902,8 +5520,11 @@
       <c r="F207" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G207" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B208" s="5" t="s">
         <v>252</v>
       </c>
@@ -4919,8 +5540,11 @@
       <c r="F208" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G208" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B209" s="5" t="s">
         <v>253</v>
       </c>
@@ -4936,8 +5560,11 @@
       <c r="F209" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G209" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210" s="5" t="s">
         <v>254</v>
       </c>
@@ -4953,8 +5580,11 @@
       <c r="F210" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G210" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B211" s="5" t="s">
         <v>255</v>
       </c>
@@ -4970,8 +5600,11 @@
       <c r="F211" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G211" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B212" s="5" t="s">
         <v>256</v>
       </c>
@@ -4987,8 +5620,11 @@
       <c r="F212" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G212" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213" s="5" t="s">
         <v>257</v>
       </c>
@@ -5004,8 +5640,11 @@
       <c r="F213" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G213" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="5" t="s">
         <v>258</v>
       </c>
@@ -5021,8 +5660,11 @@
       <c r="F214" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G214" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" s="5" t="s">
         <v>259</v>
       </c>
@@ -5038,8 +5680,11 @@
       <c r="F215" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G215" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B216" s="5" t="s">
         <v>260</v>
       </c>
@@ -5055,8 +5700,11 @@
       <c r="F216" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G216" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B217" s="5" t="s">
         <v>261</v>
       </c>
@@ -5072,8 +5720,11 @@
       <c r="F217" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G217" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" s="5" t="s">
         <v>262</v>
       </c>
@@ -5089,8 +5740,11 @@
       <c r="F218" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G218" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219" s="5" t="s">
         <v>263</v>
       </c>
@@ -5106,8 +5760,11 @@
       <c r="F219" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G219" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B220" s="5" t="s">
         <v>264</v>
       </c>
@@ -5123,8 +5780,11 @@
       <c r="F220" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G220" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B221" s="5" t="s">
         <v>265</v>
       </c>
@@ -5140,8 +5800,11 @@
       <c r="F221" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G221" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222" s="5" t="s">
         <v>266</v>
       </c>
@@ -5157,8 +5820,11 @@
       <c r="F222" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G222" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B223" s="5" t="s">
         <v>267</v>
       </c>
@@ -5174,8 +5840,11 @@
       <c r="F223" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G223" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B224" s="5" t="s">
         <v>268</v>
       </c>
@@ -5191,8 +5860,11 @@
       <c r="F224" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G224" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B225" s="5" t="s">
         <v>269</v>
       </c>
@@ -5208,8 +5880,11 @@
       <c r="F225" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G225" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" s="5" t="s">
         <v>270</v>
       </c>
@@ -5225,8 +5900,11 @@
       <c r="F226" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G226" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B227" s="5" t="s">
         <v>271</v>
       </c>
@@ -5242,8 +5920,11 @@
       <c r="F227" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G227" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B228" s="5" t="s">
         <v>272</v>
       </c>
@@ -5259,8 +5940,11 @@
       <c r="F228" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G228" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B229" s="5" t="s">
         <v>273</v>
       </c>
@@ -5276,8 +5960,11 @@
       <c r="F229" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G229" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B230" s="5" t="s">
         <v>274</v>
       </c>
@@ -5293,8 +5980,11 @@
       <c r="F230" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G230" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B231" s="5" t="s">
         <v>275</v>
       </c>
@@ -5310,8 +6000,11 @@
       <c r="F231" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G231" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B232" s="5" t="s">
         <v>276</v>
       </c>
@@ -5327,8 +6020,11 @@
       <c r="F232" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G232" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B233" s="5" t="s">
         <v>277</v>
       </c>
@@ -5344,8 +6040,11 @@
       <c r="F233" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G233" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B234" s="5" t="s">
         <v>278</v>
       </c>
@@ -5361,8 +6060,11 @@
       <c r="F234" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G234" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B235" s="5" t="s">
         <v>279</v>
       </c>
@@ -5378,8 +6080,11 @@
       <c r="F235" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G235" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B236" s="5" t="s">
         <v>280</v>
       </c>
@@ -5395,8 +6100,11 @@
       <c r="F236" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G236" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B237" s="5" t="s">
         <v>281</v>
       </c>
@@ -5412,8 +6120,11 @@
       <c r="F237" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G237" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B238" s="5" t="s">
         <v>282</v>
       </c>
@@ -5429,8 +6140,11 @@
       <c r="F238" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G238" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B239" s="5" t="s">
         <v>283</v>
       </c>
@@ -5446,8 +6160,11 @@
       <c r="F239" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G239" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B240" s="5" t="s">
         <v>284</v>
       </c>
@@ -5463,8 +6180,11 @@
       <c r="F240" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G240" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B241" s="5" t="s">
         <v>285</v>
       </c>
@@ -5480,8 +6200,11 @@
       <c r="F241" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G241" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B242" s="5" t="s">
         <v>286</v>
       </c>
@@ -5497,8 +6220,11 @@
       <c r="F242" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G242" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B243" s="5" t="s">
         <v>287</v>
       </c>
@@ -5514,8 +6240,11 @@
       <c r="F243" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G243" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B244" s="5" t="s">
         <v>288</v>
       </c>
@@ -5531,8 +6260,11 @@
       <c r="F244" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G244" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B245" s="5" t="s">
         <v>289</v>
       </c>
@@ -5548,8 +6280,11 @@
       <c r="F245" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G245" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B246" s="5" t="s">
         <v>290</v>
       </c>
@@ -5565,8 +6300,11 @@
       <c r="F246" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G246" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B247" s="5" t="s">
         <v>291</v>
       </c>
@@ -5582,8 +6320,11 @@
       <c r="F247" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G247" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B248" s="5" t="s">
         <v>292</v>
       </c>
@@ -5599,8 +6340,11 @@
       <c r="F248" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G248" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B249" s="5" t="s">
         <v>293</v>
       </c>
@@ -5616,8 +6360,11 @@
       <c r="F249" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G249" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B250" s="5" t="s">
         <v>45</v>
       </c>
@@ -5633,23 +6380,26 @@
       <c r="F250" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G250" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B251" s="5"/>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B252" s="5"/>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B253" s="5"/>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B254" s="5"/>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B255" s="5"/>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B256" s="5"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
